--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,60 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41820</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,16 +738,19 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,20 +766,23 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,8 +798,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -800,8 +810,11 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -920,8 +943,8 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +965,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -957,19 +984,22 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -986,19 +1016,22 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1028,19 +1062,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1056,25 +1093,28 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1085,11 +1125,11 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1097,8 +1137,11 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1115,19 +1158,22 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1201,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1233,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1202,19 +1254,22 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1231,19 +1286,22 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1376,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1387,8 +1457,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1405,19 +1478,22 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1521,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1463,53 +1542,59 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41820</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1620,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1543,28 +1630,31 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1682,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1609,8 +1702,8 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1621,8 +1714,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1638,8 +1734,8 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>300</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
@@ -1648,27 +1744,30 @@
         <v>300</v>
       </c>
       <c r="K44" s="3">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1679,8 +1778,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1688,28 +1790,31 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1842,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1754,8 +1862,8 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>100</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -1766,8 +1874,11 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1783,8 +1894,8 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1870,20 +1990,23 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2034,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1920,28 +2046,31 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2096,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1977,31 +2108,34 @@
       <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -2012,11 +2146,11 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2024,8 +2158,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2035,55 +2172,61 @@
       <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
+      <c r="F60" s="3">
+        <v>400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="3">
-        <v>500</v>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I60" s="3">
         <v>500</v>
       </c>
       <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2254,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>400</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
+      <c r="F66" s="3">
+        <v>400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="3">
-        <v>500</v>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I66" s="3">
         <v>500</v>
       </c>
       <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
         <v>-4700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2748,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41820</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2611,19 +2806,22 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2652,8 +2851,8 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -2664,8 +2863,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2868,8 +3089,8 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -2878,10 +3099,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,13 +3165,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2965,10 +3195,13 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,13 +3339,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3114,19 +3360,22 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3142,8 +3391,8 @@
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3154,33 +3403,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -1754,8 +1754,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2390,8 +2390,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -3173,8 +3173,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,67 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,16 +748,22 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,20 +782,26 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,11 +820,11 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -813,8 +832,14 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -946,17 +991,23 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,8 +1017,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -987,19 +1040,25 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,19 +1078,25 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-900</v>
       </c>
       <c r="L18" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1065,19 +1132,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1096,20 +1169,26 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-900</v>
       </c>
       <c r="L21" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1119,8 +1198,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1128,20 +1207,26 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1161,19 +1246,25 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-900</v>
       </c>
       <c r="L23" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,8 +1333,14 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1257,19 +1360,25 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-900</v>
       </c>
       <c r="L26" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1289,19 +1398,25 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-900</v>
       </c>
       <c r="L27" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1449,19 +1588,25 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1481,19 +1626,25 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-900</v>
       </c>
       <c r="L33" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,8 +1675,14 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1545,56 +1702,68 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-900</v>
       </c>
       <c r="L35" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1705,11 +1890,11 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1717,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1737,43 +1928,49 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>300</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
       </c>
       <c r="L44" s="3">
+        <v>300</v>
+      </c>
+      <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1781,63 +1978,75 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1100</v>
       </c>
       <c r="L46" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1845,8 +2054,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1865,11 +2080,11 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -1877,8 +2092,14 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1897,11 +2118,11 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1909,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1993,20 +2232,26 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,8 +2356,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2111,37 +2372,43 @@
       <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2149,84 +2416,102 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
       </c>
       <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2289,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>600</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
       </c>
       <c r="F76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,45 +3128,57 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2809,19 +3198,25 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-900</v>
       </c>
       <c r="L81" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2854,11 +3251,11 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2866,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3092,20 +3533,26 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,16 +3621,22 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3198,10 +3657,16 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,19 +3827,25 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3363,19 +3854,25 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3394,11 +3891,11 @@
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3406,36 +3903,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41639</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,16 +758,19 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,20 +795,23 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +836,8 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -838,8 +848,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -997,8 +1020,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1045,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1046,19 +1073,22 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,19 +1114,22 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1138,19 +1172,22 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1175,34 +1212,37 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1213,11 +1253,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1225,8 +1265,11 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1252,19 +1295,22 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,13 +1388,16 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1366,24 +1418,27 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1404,19 +1459,22 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1594,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1605,13 +1675,16 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1632,19 +1705,22 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,13 +1757,16 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -1708,62 +1787,68 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41639</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,17 +1880,18 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -1812,28 +1899,31 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,34 +1960,37 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1908,34 +2001,37 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
-        <v>300</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
@@ -1944,21 +2040,24 @@
         <v>300</v>
       </c>
       <c r="N44" s="3">
+        <v>300</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1966,14 +2065,14 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -1984,17 +2083,20 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2002,36 +2104,39 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>800</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -2048,8 +2153,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2060,34 +2165,37 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2098,34 +2206,37 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,17 +2411,20 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -2306,28 +2432,31 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2378,31 +2509,34 @@
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2410,8 +2544,8 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2422,11 +2556,11 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2434,8 +2568,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2446,7 +2583,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -2454,64 +2591,70 @@
       <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
       </c>
       <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+      <c r="I60" s="3">
+        <v>400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
-        <v>500</v>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>400</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+      <c r="I66" s="3">
+        <v>400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
-        <v>500</v>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
       </c>
       <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="E72" s="3">
         <v>-8200</v>
       </c>
       <c r="F72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-8100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-4700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,8 +3241,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3067,37 +3253,40 @@
         <v>600</v>
       </c>
       <c r="E76" s="3">
+        <v>600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,56 +3323,62 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41639</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -3204,19 +3399,22 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,34 +3429,35 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3471,34 +3688,37 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,34 +3733,35 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3549,10 +3770,13 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,19 +3854,22 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3663,10 +3893,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,22 +4076,25 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3860,45 +4106,48 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,75 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41729</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41639</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,16 +765,19 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,20 +805,23 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +849,8 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -851,8 +861,11 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1023,8 +1046,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1072,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1076,19 +1103,22 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1117,19 +1147,22 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1178,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1175,19 +1209,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1215,37 +1252,40 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1256,11 +1296,11 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1268,13 +1308,16 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1298,24 +1341,27 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1440,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1421,19 +1473,22 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1462,19 +1517,22 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1704,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1667,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1678,8 +1748,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1708,19 +1781,22 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,8 +1836,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1790,65 +1869,71 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41729</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41639</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,20 +1967,21 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1902,28 +1989,31 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,37 +2053,40 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2004,8 +2097,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2030,11 +2126,11 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>300</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
@@ -2043,24 +2139,27 @@
         <v>300</v>
       </c>
       <c r="O44" s="3">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2068,14 +2167,14 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2086,20 +2185,23 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2107,39 +2209,42 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2156,8 +2261,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2168,8 +2273,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2194,11 +2302,11 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2209,8 +2317,11 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2235,11 +2346,11 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2449,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2358,23 +2478,26 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,20 +2537,23 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2435,28 +2561,31 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2619,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2512,34 +2643,37 @@
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2547,8 +2681,8 @@
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2559,11 +2693,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2571,13 +2705,16 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2586,7 +2723,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -2594,26 +2731,29 @@
       <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2621,40 +2761,43 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
       </c>
       <c r="G60" s="3">
+        <v>400</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+      <c r="J60" s="3">
+        <v>400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="3">
-        <v>500</v>
+      <c r="L60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2837,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,8 +3013,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2867,40 +3025,43 @@
         <v>4</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
       </c>
       <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+      <c r="J66" s="3">
+        <v>400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
-        <v>500</v>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
       </c>
       <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3251,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8300</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-8200</v>
       </c>
       <c r="F72" s="3">
         <v>-8200</v>
       </c>
       <c r="G72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-8100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-4700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3427,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E76" s="3">
         <v>600</v>
       </c>
       <c r="F76" s="3">
+        <v>600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,54 +3515,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41729</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41639</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3402,19 +3597,22 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3456,11 +3655,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3890,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3691,34 +3908,37 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3760,11 +3981,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3773,10 +3994,13 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,22 +4084,25 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3896,10 +4126,13 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,25 +4322,28 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4109,48 +4355,51 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4161,45 +4410,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -1448,8 +1448,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1492,8 +1492,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1756,8 +1756,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1844,8 +1844,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2669,8 +2669,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3021,8 +3021,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3572,8 +3572,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,82 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>41820</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>41729</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>41639</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,16 +775,22 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,20 +821,26 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,11 +871,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -864,8 +883,14 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,31 +1003,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1014,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1049,17 +1094,23 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,8 +1124,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1135,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1106,19 +1159,25 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +1185,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1150,19 +1209,25 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-900</v>
       </c>
       <c r="P18" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1191,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1212,19 +1279,25 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1255,25 +1328,31 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-900</v>
       </c>
       <c r="P21" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1281,8 +1360,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1290,8 +1369,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1299,31 +1378,37 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1344,30 +1429,36 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-900</v>
       </c>
       <c r="P23" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1399,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,19 +1540,25 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1476,30 +1579,36 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-900</v>
       </c>
       <c r="P26" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1520,19 +1629,25 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-900</v>
       </c>
       <c r="P27" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1719,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1740,30 +1879,36 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -1784,19 +1929,25 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-900</v>
       </c>
       <c r="P33" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,19 +1990,25 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -1872,68 +2029,80 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-900</v>
       </c>
       <c r="P35" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>41820</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>41729</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>41639</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,22 +2235,28 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2082,8 +2267,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2091,8 +2276,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2100,8 +2285,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2129,23 +2320,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
       </c>
       <c r="P44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,32 +2352,32 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2188,70 +2385,82 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1100</v>
       </c>
       <c r="P46" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>400</v>
+      </c>
+      <c r="F47" s="3">
         <v>1400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2264,11 +2473,11 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2276,8 +2485,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2305,14 +2520,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2320,8 +2535,14 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2349,14 +2570,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2364,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2481,23 +2720,29 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2646,49 +2907,55 @@
       <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2696,20 +2963,26 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2717,87 +2990,99 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2851,20 +3142,20 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2884,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,8 +3325,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3025,43 +3340,49 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>-4700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>300</v>
+      </c>
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-500</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
       </c>
       <c r="J76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,68 +3895,80 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>41820</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>41729</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>41639</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -3600,19 +3989,25 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-900</v>
       </c>
       <c r="P81" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,14 +4055,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3673,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,8 +4320,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3911,34 +4344,40 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3984,23 +4425,29 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,28 +4540,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4129,10 +4588,16 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,32 +4810,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4358,30 +4849,36 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
@@ -4395,8 +4892,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
@@ -4404,8 +4901,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41820</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41729</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41639</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,16 +785,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,20 +834,23 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +887,8 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,20 +1026,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1035,8 +1055,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1059,31 +1079,34 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1100,8 +1123,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,10 +1162,10 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1165,19 +1192,22 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,11 +1215,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
@@ -1215,19 +1245,22 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,11 +1292,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1285,19 +1319,22 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1334,28 +1371,31 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1366,14 +1406,14 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1384,11 +1424,11 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1396,8 +1436,11 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1405,13 +1448,13 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1435,19 +1478,22 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,11 +1503,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,22 +1595,25 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1585,33 +1637,36 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1635,19 +1690,22 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1858,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1885,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -1896,22 +1966,25 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1935,19 +2008,22 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,22 +2072,25 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2035,74 +2114,80 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41820</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41729</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41639</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,29 +2227,30 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2171,28 +2258,31 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2255,11 +2348,11 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2273,14 +2366,14 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2326,11 +2422,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
-        <v>300</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
@@ -2339,10 +2435,13 @@
         <v>300</v>
       </c>
       <c r="R44" s="3">
+        <v>300</v>
+      </c>
+      <c r="S44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2358,14 +2457,14 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2373,14 +2472,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2400,20 +2502,20 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2421,28 +2523,31 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2450,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>800</v>
       </c>
       <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -2479,8 +2584,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2526,11 +2634,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2576,11 +2687,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2726,23 +2846,26 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2800,20 +2926,20 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2821,28 +2947,31 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2913,34 +3044,37 @@
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>100</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2949,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -2957,8 +3091,8 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2969,11 +3103,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -2981,13 +3115,16 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2996,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3005,7 +3142,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -3013,26 +3150,29 @@
       <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>300</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3043,46 +3183,49 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>400</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O60" s="3">
-        <v>500</v>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,8 +3288,8 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3157,8 +3303,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>400</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O66" s="3">
-        <v>500</v>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
       </c>
       <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-8200</v>
       </c>
       <c r="I72" s="3">
         <v>-8200</v>
       </c>
       <c r="J72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-4700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3984,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3810,49 +3996,52 @@
         <v>100</v>
       </c>
       <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>600</v>
       </c>
       <c r="H76" s="3">
         <v>600</v>
       </c>
       <c r="I76" s="3">
+        <v>600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,77 +4090,83 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41820</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41729</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41639</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -3995,19 +4190,22 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4061,11 +4260,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,13 +4540,16 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -4350,34 +4567,37 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4431,11 +4652,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4444,10 +4665,13 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,31 +4773,34 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4594,10 +4824,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,25 +5071,25 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>-100</v>
-      </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4855,19 +5101,22 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4880,8 +5129,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -4898,14 +5147,14 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
-      </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41820</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41729</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41639</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,16 +792,19 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,20 +844,23 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +900,8 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -902,8 +912,11 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,12 +1060,12 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1058,8 +1078,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1126,8 +1149,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1179,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1165,11 +1192,11 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
@@ -1195,19 +1222,22 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1218,11 +1248,11 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
@@ -1248,19 +1278,22 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1322,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1333,8 +1367,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1374,20 +1411,23 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,8 +1437,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1409,14 +1449,14 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1427,11 +1467,11 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1439,8 +1479,11 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1451,13 +1494,13 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1481,19 +1524,22 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1506,11 +1552,11 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,25 +1647,28 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1640,36 +1692,39 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1693,19 +1748,22 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1931,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1958,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -1969,25 +2039,28 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2011,19 +2084,22 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,25 +2151,28 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2117,77 +2196,83 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41820</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41729</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41639</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2314,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2237,23 +2324,23 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2261,28 +2348,31 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2424,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2351,11 +2444,11 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2369,14 +2462,14 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2387,8 +2480,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2425,11 +2521,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
-        <v>300</v>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -2438,10 +2534,13 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2460,14 +2559,14 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2475,14 +2574,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2493,32 +2592,35 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2526,28 +2628,31 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2558,19 +2663,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>800</v>
       </c>
       <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2587,8 +2692,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2599,8 +2704,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2637,11 +2745,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2690,11 +2801,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2849,14 +2969,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,32 +3040,35 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
       </c>
       <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2950,28 +3076,31 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>100</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3142,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3047,26 +3178,29 @@
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,8 +3210,8 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3086,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3094,8 +3228,8 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3106,11 +3240,11 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3118,8 +3252,11 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3127,7 +3264,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3136,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3145,7 +3282,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3153,31 +3290,34 @@
       <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>300</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -3186,46 +3326,49 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
+      <c r="N60" s="3">
+        <v>400</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
-        <v>500</v>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
       </c>
       <c r="R60" s="3">
+        <v>500</v>
+      </c>
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,8 +3437,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3306,8 +3452,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
+      <c r="N66" s="3">
+        <v>400</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
-        <v>500</v>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q66" s="3">
         <v>500</v>
       </c>
       <c r="R66" s="3">
+        <v>500</v>
+      </c>
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-8200</v>
       </c>
       <c r="J72" s="3">
         <v>-8200</v>
       </c>
       <c r="K72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-8100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>100</v>
       </c>
       <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>600</v>
       </c>
       <c r="I76" s="3">
         <v>600</v>
       </c>
       <c r="J76" s="3">
+        <v>600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,83 +4282,89 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41820</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41729</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41639</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -4193,19 +4388,22 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4263,11 +4462,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4757,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4552,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4570,34 +4787,37 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4655,11 +4876,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4668,10 +4889,13 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5003,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4785,25 +5015,25 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4827,10 +5057,13 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5305,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5074,25 +5320,25 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>-100</v>
-      </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5104,19 +5350,22 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5132,8 +5381,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -5150,14 +5399,14 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5168,8 +5417,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5177,48 +5429,51 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>-100</v>
-      </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,97 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>41820</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>41729</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>41639</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,16 +802,22 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,20 +860,26 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,11 +922,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -915,8 +934,14 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,29 +1082,35 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,11 +1120,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1105,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,11 +1179,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1152,17 +1197,23 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,29 +1231,31 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
@@ -1225,19 +1278,25 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,20 +1304,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
@@ -1281,19 +1340,25 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-900</v>
       </c>
       <c r="T18" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1359,19 +1426,25 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,20 +1487,26 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-900</v>
       </c>
       <c r="T21" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,11 +1519,11 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1452,8 +1531,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1461,8 +1540,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1470,43 +1549,49 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1527,19 +1612,25 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-900</v>
       </c>
       <c r="T23" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1555,14 +1646,14 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1594,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,31 +1747,37 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1695,42 +1798,48 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-900</v>
       </c>
       <c r="T26" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1751,19 +1860,25 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-900</v>
       </c>
       <c r="T27" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2004,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2031,42 +2170,48 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2087,19 +2232,25 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-900</v>
       </c>
       <c r="T33" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,31 +2305,37 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2199,80 +2356,92 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-900</v>
       </c>
       <c r="T35" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>41820</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>41729</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>41639</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,14 +2632,14 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2465,8 +2650,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2474,8 +2659,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2483,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2524,23 +2715,29 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>300</v>
-      </c>
-      <c r="R44" s="3">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="U44" s="3">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2562,32 +2759,32 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2595,69 +2792,81 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1100</v>
       </c>
       <c r="T46" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2666,23 +2875,23 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2695,11 +2904,11 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2707,31 +2916,37 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2748,14 +2963,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -2763,8 +2978,14 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2804,14 +3025,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2819,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2972,23 +3211,29 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3181,26 +3442,32 @@
       <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,29 +3480,29 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3243,20 +3510,26 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3267,108 +3540,120 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3440,11 +3731,11 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3455,11 +3746,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3479,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,13 +3956,19 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3662,49 +3977,55 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
+        <v>200</v>
+      </c>
+      <c r="L66" s="3">
         <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>500</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-4700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
       </c>
       <c r="N76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,92 +4662,104 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>41820</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>41729</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>41639</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -4391,19 +4780,25 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-900</v>
       </c>
       <c r="T81" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4465,14 +4862,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4480,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,22 +5187,28 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4790,34 +5223,40 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,31 +5277,33 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4879,23 +5320,29 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5018,28 +5477,28 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5060,10 +5519,16 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,13 +5793,19 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5323,28 +5814,28 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5353,19 +5844,25 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5384,11 +5881,11 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -5402,8 +5899,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
@@ -5411,8 +5908,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5420,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -5287,23 +5287,23 @@
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>GFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,105 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>41820</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>41729</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>41639</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,16 +816,22 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,20 +880,26 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,11 +948,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -940,8 +960,14 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +990,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1054,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,35 +1122,41 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1126,11 +1166,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1150,8 +1190,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,11 +1231,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1203,17 +1249,23 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,16 +1285,18 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1254,14 +1308,14 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
@@ -1284,19 +1338,25 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1316,14 +1376,14 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
@@ -1346,19 +1406,25 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-900</v>
       </c>
       <c r="V18" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1447,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1432,30 +1500,36 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1493,20 +1567,26 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-900</v>
       </c>
       <c r="V21" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,11 +1605,11 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1537,8 +1617,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1546,8 +1626,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1555,28 +1635,34 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1588,16 +1674,16 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1618,19 +1704,25 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-900</v>
       </c>
       <c r="V23" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1652,14 +1744,14 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1691,8 +1783,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,16 +1851,22 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1774,16 +1878,16 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1804,27 +1908,33 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-900</v>
       </c>
       <c r="V26" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1836,16 +1946,16 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1866,19 +1976,25 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-900</v>
       </c>
       <c r="V27" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2055,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2123,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2191,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2259,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2149,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2176,27 +2316,33 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -2208,16 +2354,16 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2238,19 +2384,25 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-900</v>
       </c>
       <c r="V33" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,16 +2463,22 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2332,16 +2490,16 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2362,86 +2520,98 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-900</v>
       </c>
       <c r="V35" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>41820</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>41729</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>41639</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2634,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2660,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,40 +2792,46 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2656,8 +2842,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2665,8 +2851,8 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2674,8 +2860,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2721,23 +2913,29 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>300</v>
-      </c>
-      <c r="T44" s="3">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W44" s="3">
+        <v>300</v>
+      </c>
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2765,32 +2963,32 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2798,81 +2996,93 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>700</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1100</v>
       </c>
       <c r="V46" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2881,23 +3091,23 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2910,11 +3120,11 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2922,19 +3132,25 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2948,11 +3164,11 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2969,14 +3185,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -2984,8 +3200,14 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3031,14 +3253,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3046,8 +3268,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3336,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3404,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3217,23 +3457,29 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3540,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3638,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3664,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3448,43 +3710,49 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3496,19 +3764,19 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3516,28 +3784,34 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3546,114 +3820,126 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +4000,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3737,11 +4029,11 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3752,11 +4044,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3776,8 +4068,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4136,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4204,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,19 +4272,25 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -3983,49 +4299,55 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
+        <v>200</v>
+      </c>
+      <c r="N66" s="3">
         <v>400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4370,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4434,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4502,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4570,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4638,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-4700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4774,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4842,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4910,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-500</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,83 +5046,95 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>41820</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>41729</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>41639</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -4756,16 +5146,16 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -4786,19 +5176,25 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-900</v>
       </c>
       <c r="V81" s="3">
         <v>-1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5217,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4868,14 +5266,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4883,8 +5281,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5349,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5417,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5485,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5553,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5621,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5205,16 +5639,16 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -5229,34 +5663,40 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5719,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5326,23 +5768,29 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5851,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5919,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5483,28 +5943,28 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5525,10 +5985,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6017,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6081,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6149,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6217,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,19 +6285,25 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5820,28 +6312,28 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5850,27 +6342,33 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5887,11 +6385,11 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
@@ -5905,8 +6403,8 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
@@ -5914,8 +6412,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -5923,8 +6421,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5932,57 +6436,63 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFOO_QTR_FIN.xlsx
@@ -4656,7 +4656,7 @@
         <v>-10300</v>
       </c>
       <c r="F72" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="G72" s="3">
         <v>-9900</v>
